--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 37031-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 37031-2022.xlsx", "A 37031-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 37031-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 37031-2022.png", "A 37031-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 37031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 37031-2022.docx", "A 37031-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 37031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 37031-2022.docx", "A 37031-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 37031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 37031-2022.docx", "A 37031-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 37031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 37031-2022.docx", "A 37031-2022")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 28703-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 28703-2023.xlsx", "A 28703-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 28703-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 28703-2023.png", "A 28703-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 28703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 28703-2023.docx", "A 28703-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 28703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 28703-2023.docx", "A 28703-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 28703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 28703-2023.docx", "A 28703-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 28703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 28703-2023.docx", "A 28703-2023")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -798,27 +798,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 53878-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 53878-2022.xlsx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 53878-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 53878-2022.png", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 53878-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 53878-2022.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 53878-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 53878-2022.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 53878-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 53878-2022.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 53878-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 53878-2022.docx", "A 53878-2022")</f>
         <v/>
       </c>
     </row>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,27 +884,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 20702-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 20702-2023.xlsx", "A 20702-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 20702-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 20702-2023.png", "A 20702-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 20702-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 20702-2023.docx", "A 20702-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 20702-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 20702-2023.docx", "A 20702-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 20702-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 20702-2023.docx", "A 20702-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 20702-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 20702-2023.docx", "A 20702-2023")</f>
         <v/>
       </c>
     </row>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,27 +969,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 30708-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 30708-2021.xlsx", "A 30708-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 30708-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 30708-2021.png", "A 30708-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 30708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 30708-2021.docx", "A 30708-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 30708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 30708-2021.docx", "A 30708-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 30708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 30708-2021.docx", "A 30708-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 30708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 30708-2021.docx", "A 30708-2021")</f>
         <v/>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,27 +1054,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 30721-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 30721-2021.xlsx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 30721-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 30721-2021.png", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 30721-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 30721-2021.docx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 30721-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 30721-2021.docx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 30721-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 30721-2021.docx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 30721-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 30721-2021.docx", "A 30721-2021")</f>
         <v/>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1139,27 +1139,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 57968-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 57968-2021.xlsx", "A 57968-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 57968-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 57968-2021.png", "A 57968-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 57968-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 57968-2021.docx", "A 57968-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 57968-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 57968-2021.docx", "A 57968-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 57968-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 57968-2021.docx", "A 57968-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 57968-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 57968-2021.docx", "A 57968-2021")</f>
         <v/>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1224,27 +1224,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 5732-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 5732-2022.xlsx", "A 5732-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 5732-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 5732-2022.png", "A 5732-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 5732-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 5732-2022.docx", "A 5732-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 5732-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 5732-2022.docx", "A 5732-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 5732-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 5732-2022.docx", "A 5732-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 5732-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 5732-2022.docx", "A 5732-2022")</f>
         <v/>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1314,27 +1314,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 24650-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/artfynd/A 24650-2023.xlsx", "A 24650-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 24650-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/kartor/A 24650-2023.png", "A 24650-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 24650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomål/A 24650-2023.docx", "A 24650-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 24650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/klagomålsmail/A 24650-2023.docx", "A 24650-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 24650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsyn/A 24650-2023.docx", "A 24650-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 24650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KLIPPAN/tillsynsmail/A 24650-2023.docx", "A 24650-2023")</f>
         <v/>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y265"/>
+  <dimension ref="A1:Y266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
       </c>
       <c r="R264" s="2" t="inlineStr"/>
     </row>
-    <row r="265">
+    <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
           <t>A 37068-2023</t>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,6 +16247,63 @@
         <v>0</v>
       </c>
       <c r="R265" s="2" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>A 44365-2023</t>
+        </is>
+      </c>
+      <c r="B266" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C266" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45188</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y266"/>
+  <dimension ref="A1:Y269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
       </c>
       <c r="R265" s="2" t="inlineStr"/>
     </row>
-    <row r="266">
+    <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
           <t>A 44365-2023</t>
@@ -16258,7 +16258,7 @@
         <v>45188</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,6 +16304,177 @@
         <v>0</v>
       </c>
       <c r="R266" s="2" t="inlineStr"/>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>A 46728-2023</t>
+        </is>
+      </c>
+      <c r="B267" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C267" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" s="2" t="inlineStr"/>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>A 46835-2023</t>
+        </is>
+      </c>
+      <c r="B268" s="1" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C268" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" s="2" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>A 46836-2023</t>
+        </is>
+      </c>
+      <c r="B269" s="1" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C269" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45188</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45198</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>45199</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>45199</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45188</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45198</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>45199</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>45199</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45188</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45198</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>45199</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>45199</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45103</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44365</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44596</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45084</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43356</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43480</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>43510</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43510</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43523</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43567</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43570</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43644</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43653</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43695</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43700</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43724</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43731</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43762</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43768</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43789</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43859</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43873</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43877</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43877</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43913</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43913</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43942</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43942</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43945</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43955</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43959</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43986</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43989</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43994</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43994</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>44028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44033</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44067</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44068</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44082</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44144</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44154</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44162</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44162</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44195</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44235</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44245</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44300</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44305</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44305</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44309</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44455</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44475</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44530</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44531</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44531</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44572</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44575</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44575</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44596</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44596</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44616</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44691</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44697</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44697</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44722</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44722</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44732</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44806</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44806</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44816</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44838</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44841</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44845</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44846</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44868</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44879</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44880</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44880</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44882</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44882</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44883</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44883</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44883</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44936</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44944</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44952</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44965</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44977</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44988</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44991</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45012</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45022</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45027</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45055</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45056</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45059</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45079</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45084</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45084</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45086</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45089</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45094</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>45094</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45103</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45103</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45103</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45104</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45104</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45106</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45155</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45188</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45198</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>45199</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>45199</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
